--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Myoc-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H2">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J2">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N2">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O2">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P2">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q2">
-        <v>158.3741149988244</v>
+        <v>11.75400709898411</v>
       </c>
       <c r="R2">
-        <v>158.3741149988244</v>
+        <v>105.786063890857</v>
       </c>
       <c r="S2">
-        <v>0.5087003243636246</v>
+        <v>0.03381760430666501</v>
       </c>
       <c r="T2">
-        <v>0.5087003243636246</v>
+        <v>0.03381760430666502</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H3">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I3">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J3">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N3">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P3">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q3">
-        <v>88.48728409084646</v>
+        <v>6.574154514077889</v>
       </c>
       <c r="R3">
-        <v>88.48728409084646</v>
+        <v>59.167390626701</v>
       </c>
       <c r="S3">
-        <v>0.2842226466073949</v>
+        <v>0.01891458411890671</v>
       </c>
       <c r="T3">
-        <v>0.2842226466073949</v>
+        <v>0.01891458411890672</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.10800524596442</v>
+        <v>0.3744836666666667</v>
       </c>
       <c r="H4">
-        <v>5.10800524596442</v>
+        <v>1.123451</v>
       </c>
       <c r="I4">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636478</v>
       </c>
       <c r="J4">
-        <v>0.9079832928581187</v>
+        <v>0.06104703021636479</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N4">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O4">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P4">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q4">
-        <v>35.82183021633681</v>
+        <v>2.889995061437556</v>
       </c>
       <c r="R4">
-        <v>35.82183021633681</v>
+        <v>26.009955552938</v>
       </c>
       <c r="S4">
-        <v>0.1150603218870993</v>
+        <v>0.008314841790793052</v>
       </c>
       <c r="T4">
-        <v>0.1150603218870993</v>
+        <v>0.008314841790793054</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +708,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H5">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I5">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J5">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N5">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O5">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P5">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q5">
-        <v>16.04992588886612</v>
+        <v>161.1826516083837</v>
       </c>
       <c r="R5">
-        <v>16.04992588886612</v>
+        <v>1450.643864475453</v>
       </c>
       <c r="S5">
-        <v>0.0515526322324765</v>
+        <v>0.463740670503974</v>
       </c>
       <c r="T5">
-        <v>0.0515526322324765</v>
+        <v>0.4637406705039741</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5176547041053829</v>
+        <v>5.135293</v>
       </c>
       <c r="H6">
-        <v>0.5176547041053829</v>
+        <v>15.405879</v>
       </c>
       <c r="I6">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="J6">
-        <v>0.09201670714188118</v>
+        <v>0.8371376774088587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N6">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O6">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P6">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q6">
-        <v>8.967465117488867</v>
+        <v>90.15135415001433</v>
       </c>
       <c r="R6">
-        <v>8.967465117488867</v>
+        <v>811.3621873501289</v>
       </c>
       <c r="S6">
-        <v>0.02880364896763551</v>
+        <v>0.2593756151992374</v>
       </c>
       <c r="T6">
-        <v>0.02880364896763551</v>
+        <v>0.2593756151992374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.135293</v>
+      </c>
+      <c r="H7">
+        <v>15.405879</v>
+      </c>
+      <c r="I7">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="J7">
+        <v>0.8371376774088587</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.717279333333334</v>
+      </c>
+      <c r="N7">
+        <v>23.151838</v>
+      </c>
+      <c r="O7">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="P7">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="Q7">
+        <v>39.63049053951134</v>
+      </c>
+      <c r="R7">
+        <v>356.674414855602</v>
+      </c>
+      <c r="S7">
+        <v>0.1140213917056472</v>
+      </c>
+      <c r="T7">
+        <v>0.1140213917056472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H8">
+        <v>0.195449</v>
+      </c>
+      <c r="I8">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J8">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>31.38723566666667</v>
+      </c>
+      <c r="N8">
+        <v>94.16170700000001</v>
+      </c>
+      <c r="O8">
+        <v>0.5539598599114094</v>
+      </c>
+      <c r="P8">
+        <v>0.5539598599114095</v>
+      </c>
+      <c r="Q8">
+        <v>2.044867941271445</v>
+      </c>
+      <c r="R8">
+        <v>18.403811471443</v>
+      </c>
+      <c r="S8">
+        <v>0.005883315733515187</v>
+      </c>
+      <c r="T8">
+        <v>0.005883315733515189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H9">
+        <v>0.195449</v>
+      </c>
+      <c r="I9">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J9">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N9">
+        <v>52.665751</v>
+      </c>
+      <c r="O9">
+        <v>0.3098362697066353</v>
+      </c>
+      <c r="P9">
+        <v>0.3098362697066353</v>
+      </c>
+      <c r="Q9">
+        <v>1.143718707466556</v>
+      </c>
+      <c r="R9">
+        <v>10.293468367199</v>
+      </c>
+      <c r="S9">
+        <v>0.003290607735856925</v>
+      </c>
+      <c r="T9">
+        <v>0.003290607735856925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06514966666666668</v>
+      </c>
+      <c r="H10">
+        <v>0.195449</v>
+      </c>
+      <c r="I10">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="J10">
+        <v>0.01062047299682699</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.717279333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.151838</v>
+      </c>
+      <c r="O10">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="P10">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="Q10">
+        <v>0.5027781761402224</v>
+      </c>
+      <c r="R10">
+        <v>4.525003585262001</v>
+      </c>
+      <c r="S10">
+        <v>0.001446549527454879</v>
+      </c>
+      <c r="T10">
+        <v>0.001446549527454879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.678262</v>
+      </c>
+      <c r="I11">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J11">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>31.38723566666667</v>
+      </c>
+      <c r="N11">
+        <v>94.16170700000001</v>
+      </c>
+      <c r="O11">
+        <v>0.5539598599114094</v>
+      </c>
+      <c r="P11">
+        <v>0.5539598599114095</v>
+      </c>
+      <c r="Q11">
+        <v>17.55866830147045</v>
+      </c>
+      <c r="R11">
+        <v>158.028014713234</v>
+      </c>
+      <c r="S11">
+        <v>0.05051826936725521</v>
+      </c>
+      <c r="T11">
+        <v>0.05051826936725523</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="H7">
-        <v>0.5176547041053829</v>
-      </c>
-      <c r="I7">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="J7">
-        <v>0.09201670714188118</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.0128804673092</v>
-      </c>
-      <c r="N7">
-        <v>7.0128804673092</v>
-      </c>
-      <c r="O7">
-        <v>0.1267207478288685</v>
-      </c>
-      <c r="P7">
-        <v>0.1267207478288685</v>
-      </c>
-      <c r="Q7">
-        <v>3.630250563231364</v>
-      </c>
-      <c r="R7">
-        <v>3.630250563231364</v>
-      </c>
-      <c r="S7">
-        <v>0.01166042594176917</v>
-      </c>
-      <c r="T7">
-        <v>0.01166042594176917</v>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.678262</v>
+      </c>
+      <c r="I12">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J12">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N12">
+        <v>52.665751</v>
+      </c>
+      <c r="O12">
+        <v>0.3098362697066353</v>
+      </c>
+      <c r="P12">
+        <v>0.3098362697066353</v>
+      </c>
+      <c r="Q12">
+        <v>9.820769844973556</v>
+      </c>
+      <c r="R12">
+        <v>88.38692860476199</v>
+      </c>
+      <c r="S12">
+        <v>0.02825546265263426</v>
+      </c>
+      <c r="T12">
+        <v>0.02825546265263427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5594206666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.678262</v>
+      </c>
+      <c r="I13">
+        <v>0.09119481937794954</v>
+      </c>
+      <c r="J13">
+        <v>0.09119481937794956</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.717279333333334</v>
+      </c>
+      <c r="N13">
+        <v>23.151838</v>
+      </c>
+      <c r="O13">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="P13">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="Q13">
+        <v>4.317205549506222</v>
+      </c>
+      <c r="R13">
+        <v>38.854849945556</v>
+      </c>
+      <c r="S13">
+        <v>0.01242108735806006</v>
+      </c>
+      <c r="T13">
+        <v>0.01242108735806006</v>
       </c>
     </row>
   </sheetData>
